--- a/src/test/resources/Documents/33229/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/33229/Base/JobMaterial.xlsx
@@ -47,28 +47,28 @@
     <t>Sheet</t>
   </si>
   <si>
+    <t>2-sheets (Collated/Nested)  2p</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Accent Opaque Txt Super Smooth Wh Digital FSC - 80 # 29.5 x 20.8125" 330 ppi</t>
+  </si>
+  <si>
+    <t>685.00</t>
+  </si>
+  <si>
+    <t>sheets (thousand)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>215015v - 80# 29.5x20.8125 ACCENT OPAQUE DIGITAL SUPER SMOOTH TEXT 103M</t>
+  </si>
+  <si>
     <t>1-sheet (Collated/Nested)  2p</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Accent Opaque Txt Super Smooth Wh Digital FSC - 80 # 29.5 x 20.8125" 330 ppi</t>
-  </si>
-  <si>
-    <t>685.00</t>
-  </si>
-  <si>
-    <t>sheets (thousand)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>215015v - 80# 29.5x20.8125 ACCENT OPAQUE DIGITAL SUPER SMOOTH TEXT 103M</t>
-  </si>
-  <si>
-    <t>2-sheets (Collated/Nested)  2p</t>
   </si>
 </sst>
 </file>
